--- a/biology/Neurosciences/Processus_cognitifs/Processus_cognitifs.xlsx
+++ b/biology/Neurosciences/Processus_cognitifs/Processus_cognitifs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les processus cognitifs sont les différents modes à travers lesquels un système traite l'information en y répondant par une action. Deux types de systèmes capables de réaliser des processus cognitifs peuvent se distinguer :
 les systèmes naturels : un neurone, un réseau de neurones, un cerveau (humain ou animal), un groupe d'individus (poissons, fourmis), etc.
@@ -513,55 +525,92 @@
           <t>Les deux dimensions du traitement de l’information</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le traitement de l’information se définit comme étant le processus par lequel l’information perçue est analysée et intégrée dans la structure de connaissances de la personne. Il est analysé selon deux dimensions :
 le mode de traitement ;
-le niveau d'élaboration.
-Mode de traitement
-C'est le processus par lequel « l’information sensorielle est représentée dans la mémoire de travail de l’individu »[1].
-En psychologie, on distingue les deux modes de traitement suivants[2] : 
+le niveau d'élaboration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Processus_cognitifs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Processus_cognitifs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les deux dimensions du traitement de l’information</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mode de traitement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est le processus par lequel « l’information sensorielle est représentée dans la mémoire de travail de l’individu ».
+En psychologie, on distingue les deux modes de traitement suivants : 
 le traitement discursif : sous format « d'encodage d'informations sous la forme de symboles abstraits, de mots et de nombres » ;
-le traitement par imagerie (non verbal) : défini comme étant « l'encodage d'informations sous la forme de représentations concrètes, imaginaires et sensorielles »[3].
+le traitement par imagerie (non verbal) : défini comme étant « l'encodage d'informations sous la forme de représentations concrètes, imaginaires et sensorielles ».
 En marketing, on distingue les deux modes de traitement suivants :                      
-le traitement analytique : un traitement mettant l'accent sur l’encodage verbal, les réponses cognitives et le traitement rationnel et profond des stimuli[4] ;
-le traitement expérientiel : traitement mettant l'accent sur l’imagerie mentale, le plaisir sensoriel, les rêveries et les réponses émotionnelles[5].
+le traitement analytique : un traitement mettant l'accent sur l’encodage verbal, les réponses cognitives et le traitement rationnel et profond des stimuli ;
+le traitement expérientiel : traitement mettant l'accent sur l’imagerie mentale, le plaisir sensoriel, les rêveries et les réponses émotionnelles.
 Les processus cognitifs sont :
 Perception – Attention – Sensation
 Mémoire – Représentation – Langage
 Raisonnement – Catégorisation – Prise de décision – Reconnaissance
 Apprentissage – Émotion – Oubli
 Action – Comportement individuel et collectif
-Phénomènes collectifs
-Niveau d’élaboration</t>
+Phénomènes collectifs</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Processus_cognitifs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Processus_cognitifs</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les êtres humains, les processus cognitifs renvoient donc à des enchaînements d'opérations mentales en relation avec la saisie des informations, leur stockage et leur traitement. Ces processus s'appliquent particulièrement, on l'a indiqué plus haut, à ce qui relève de la perception, de la mémoire, de la pensée, du langage, de la résolution de problème, de la prise de décision, etc.
 Il ressort des travaux de la psychologie génétique, et plus particulièrement des apports de Jean Piaget et de ses collaborateurs, qu'au cours de l'acquisition d'une nouvelle connaissance, nos processus cognitifs utilisent deux mécanismes fondamentaux :
